--- a/po_analysis_by_asin/B0BSNYN4XQ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSNYN4XQ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,31 +452,31 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>384</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>24</v>
@@ -484,193 +484,337 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>384</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45362</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45376</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45383</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>144</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45390</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45397</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>80</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45404</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45411</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45418</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45439</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>48</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45488</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>288</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45495</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45509</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45516</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>112</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45523</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45544</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>176</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45551</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45558</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>48</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45565</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45579</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45593</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B47" t="n">
         <v>96</v>
       </c>
     </row>
@@ -685,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,73 +851,137 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1032</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>552</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>256</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>320</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>304</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>160</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>352</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B18" t="n">
         <v>208</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BSNYN4XQ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSNYN4XQ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -845,7 +846,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -983,6 +984,803 @@
       </c>
       <c r="B18" t="n">
         <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>70</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-77.95452413601268</v>
+      </c>
+      <c r="D2" t="n">
+        <v>224.3433738376704</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-71.81240080393177</v>
+      </c>
+      <c r="D3" t="n">
+        <v>232.772098618468</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>76</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-79.62264268756921</v>
+      </c>
+      <c r="D4" t="n">
+        <v>226.6877236290735</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>79</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-64.76621331287419</v>
+      </c>
+      <c r="D5" t="n">
+        <v>239.9513481728172</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>79</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-68.20902786620114</v>
+      </c>
+      <c r="D6" t="n">
+        <v>230.8555285464355</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>80</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-68.99847980947841</v>
+      </c>
+      <c r="D7" t="n">
+        <v>217.3302393342116</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>80</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-62.54004041737574</v>
+      </c>
+      <c r="D8" t="n">
+        <v>226.1111534327484</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>81</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-70.2131731027112</v>
+      </c>
+      <c r="D9" t="n">
+        <v>239.0787421245435</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>81</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-72.0723141571908</v>
+      </c>
+      <c r="D10" t="n">
+        <v>232.2104766275146</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>82</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-60.84784468483574</v>
+      </c>
+      <c r="D11" t="n">
+        <v>234.9951928929652</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>83</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-64.00832359083297</v>
+      </c>
+      <c r="D12" t="n">
+        <v>220.103876714955</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>83</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-66.50542555795823</v>
+      </c>
+      <c r="D13" t="n">
+        <v>228.3559507647531</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>84</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-67.99539233789451</v>
+      </c>
+      <c r="D14" t="n">
+        <v>239.4297698536421</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>86</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-67.74139333209362</v>
+      </c>
+      <c r="D15" t="n">
+        <v>227.8054910772229</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>91</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-71.4688908660289</v>
+      </c>
+      <c r="D16" t="n">
+        <v>232.1094529363405</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>92</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-67.02723668655298</v>
+      </c>
+      <c r="D17" t="n">
+        <v>242.2775577909624</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>93</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-50.79309597156892</v>
+      </c>
+      <c r="D18" t="n">
+        <v>249.1480707946022</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>94</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-62.09015111359153</v>
+      </c>
+      <c r="D19" t="n">
+        <v>240.2832758873422</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>96</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-44.86790429710968</v>
+      </c>
+      <c r="D20" t="n">
+        <v>255.0211998346596</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>97</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-60.16562038156194</v>
+      </c>
+      <c r="D21" t="n">
+        <v>249.8512209806746</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>97</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-51.74329431879529</v>
+      </c>
+      <c r="D22" t="n">
+        <v>245.0556616141128</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>99</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-54.96463594719937</v>
+      </c>
+      <c r="D23" t="n">
+        <v>245.9838640972291</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>99</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-46.73834418831726</v>
+      </c>
+      <c r="D24" t="n">
+        <v>248.9148451613787</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-42.40924792353879</v>
+      </c>
+      <c r="D25" t="n">
+        <v>246.5550787408174</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>100</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-44.83863307304108</v>
+      </c>
+      <c r="D26" t="n">
+        <v>250.8404242340377</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>101</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-32.60759353390347</v>
+      </c>
+      <c r="D27" t="n">
+        <v>255.1575693579658</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>101</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-51.84176878806007</v>
+      </c>
+      <c r="D28" t="n">
+        <v>251.3890920205423</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>103</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-53.58583620129977</v>
+      </c>
+      <c r="D29" t="n">
+        <v>244.3160510276288</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>103</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-41.84760568942556</v>
+      </c>
+      <c r="D30" t="n">
+        <v>255.9323084938668</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>104</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-47.81971314739381</v>
+      </c>
+      <c r="D31" t="n">
+        <v>257.7090433478691</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>104</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-42.68186167937606</v>
+      </c>
+      <c r="D32" t="n">
+        <v>265.3322861860874</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>105</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-51.31586628689925</v>
+      </c>
+      <c r="D33" t="n">
+        <v>250.8251494868412</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>105</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-50.49718844168113</v>
+      </c>
+      <c r="D34" t="n">
+        <v>251.8415433020244</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>106</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-46.4150156458661</v>
+      </c>
+      <c r="D35" t="n">
+        <v>262.4241274131418</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>107</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-48.85617610935928</v>
+      </c>
+      <c r="D36" t="n">
+        <v>254.1620077155121</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>111</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-39.49804816297192</v>
+      </c>
+      <c r="D37" t="n">
+        <v>274.7295843483599</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>112</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-34.73991124042663</v>
+      </c>
+      <c r="D38" t="n">
+        <v>259.4550211292342</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>113</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-33.39138366977189</v>
+      </c>
+      <c r="D39" t="n">
+        <v>273.1265002263449</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>113</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-40.19005178711286</v>
+      </c>
+      <c r="D40" t="n">
+        <v>264.4746623138895</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>114</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-40.1572649941246</v>
+      </c>
+      <c r="D41" t="n">
+        <v>266.0856660386406</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>115</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-46.12782990563502</v>
+      </c>
+      <c r="D42" t="n">
+        <v>261.1077447886579</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>116</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-28.42527974557532</v>
+      </c>
+      <c r="D43" t="n">
+        <v>271.4270328818843</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>116</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-34.11957412649119</v>
+      </c>
+      <c r="D44" t="n">
+        <v>277.1785355288732</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>117</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-32.2524822471669</v>
+      </c>
+      <c r="D45" t="n">
+        <v>255.4149612226694</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>118</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-30.31125390059152</v>
+      </c>
+      <c r="D46" t="n">
+        <v>269.3181647113717</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>119</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-27.21459211204624</v>
+      </c>
+      <c r="D47" t="n">
+        <v>270.245339936985</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>119</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-37.82038541350573</v>
+      </c>
+      <c r="D48" t="n">
+        <v>264.8666697744933</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>120</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-29.94755533064287</v>
+      </c>
+      <c r="D49" t="n">
+        <v>279.1921629520487</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>120</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-27.48149862395706</v>
+      </c>
+      <c r="D50" t="n">
+        <v>281.8372412451992</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>121</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-29.76788140239055</v>
+      </c>
+      <c r="D51" t="n">
+        <v>277.1762616495807</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>122</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-25.03617790005428</v>
+      </c>
+      <c r="D52" t="n">
+        <v>284.1203763640547</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>122</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-28.65297296299482</v>
+      </c>
+      <c r="D53" t="n">
+        <v>269.4652550918231</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>123</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-33.94034751937073</v>
+      </c>
+      <c r="D54" t="n">
+        <v>268.4256200574456</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>123</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-15.83410273026471</v>
+      </c>
+      <c r="D55" t="n">
+        <v>281.9192284755436</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BSNYN4XQ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSNYN4XQ_po_data.xlsx
@@ -997,7 +997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,16 +1016,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1034,12 +1024,6 @@
       <c r="B2" t="n">
         <v>70</v>
       </c>
-      <c r="C2" t="n">
-        <v>-77.95452413601268</v>
-      </c>
-      <c r="D2" t="n">
-        <v>224.3433738376704</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1048,12 +1032,6 @@
       <c r="B3" t="n">
         <v>75</v>
       </c>
-      <c r="C3" t="n">
-        <v>-71.81240080393177</v>
-      </c>
-      <c r="D3" t="n">
-        <v>232.772098618468</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1062,12 +1040,6 @@
       <c r="B4" t="n">
         <v>76</v>
       </c>
-      <c r="C4" t="n">
-        <v>-79.62264268756921</v>
-      </c>
-      <c r="D4" t="n">
-        <v>226.6877236290735</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1076,12 +1048,6 @@
       <c r="B5" t="n">
         <v>79</v>
       </c>
-      <c r="C5" t="n">
-        <v>-64.76621331287419</v>
-      </c>
-      <c r="D5" t="n">
-        <v>239.9513481728172</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1090,12 +1056,6 @@
       <c r="B6" t="n">
         <v>79</v>
       </c>
-      <c r="C6" t="n">
-        <v>-68.20902786620114</v>
-      </c>
-      <c r="D6" t="n">
-        <v>230.8555285464355</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1104,12 +1064,6 @@
       <c r="B7" t="n">
         <v>80</v>
       </c>
-      <c r="C7" t="n">
-        <v>-68.99847980947841</v>
-      </c>
-      <c r="D7" t="n">
-        <v>217.3302393342116</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1118,12 +1072,6 @@
       <c r="B8" t="n">
         <v>80</v>
       </c>
-      <c r="C8" t="n">
-        <v>-62.54004041737574</v>
-      </c>
-      <c r="D8" t="n">
-        <v>226.1111534327484</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1132,12 +1080,6 @@
       <c r="B9" t="n">
         <v>81</v>
       </c>
-      <c r="C9" t="n">
-        <v>-70.2131731027112</v>
-      </c>
-      <c r="D9" t="n">
-        <v>239.0787421245435</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1146,12 +1088,6 @@
       <c r="B10" t="n">
         <v>81</v>
       </c>
-      <c r="C10" t="n">
-        <v>-72.0723141571908</v>
-      </c>
-      <c r="D10" t="n">
-        <v>232.2104766275146</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1160,12 +1096,6 @@
       <c r="B11" t="n">
         <v>82</v>
       </c>
-      <c r="C11" t="n">
-        <v>-60.84784468483574</v>
-      </c>
-      <c r="D11" t="n">
-        <v>234.9951928929652</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1174,12 +1104,6 @@
       <c r="B12" t="n">
         <v>83</v>
       </c>
-      <c r="C12" t="n">
-        <v>-64.00832359083297</v>
-      </c>
-      <c r="D12" t="n">
-        <v>220.103876714955</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1188,12 +1112,6 @@
       <c r="B13" t="n">
         <v>83</v>
       </c>
-      <c r="C13" t="n">
-        <v>-66.50542555795823</v>
-      </c>
-      <c r="D13" t="n">
-        <v>228.3559507647531</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1202,12 +1120,6 @@
       <c r="B14" t="n">
         <v>84</v>
       </c>
-      <c r="C14" t="n">
-        <v>-67.99539233789451</v>
-      </c>
-      <c r="D14" t="n">
-        <v>239.4297698536421</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1216,12 +1128,6 @@
       <c r="B15" t="n">
         <v>86</v>
       </c>
-      <c r="C15" t="n">
-        <v>-67.74139333209362</v>
-      </c>
-      <c r="D15" t="n">
-        <v>227.8054910772229</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1230,12 +1136,6 @@
       <c r="B16" t="n">
         <v>91</v>
       </c>
-      <c r="C16" t="n">
-        <v>-71.4688908660289</v>
-      </c>
-      <c r="D16" t="n">
-        <v>232.1094529363405</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1244,12 +1144,6 @@
       <c r="B17" t="n">
         <v>92</v>
       </c>
-      <c r="C17" t="n">
-        <v>-67.02723668655298</v>
-      </c>
-      <c r="D17" t="n">
-        <v>242.2775577909624</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1258,12 +1152,6 @@
       <c r="B18" t="n">
         <v>93</v>
       </c>
-      <c r="C18" t="n">
-        <v>-50.79309597156892</v>
-      </c>
-      <c r="D18" t="n">
-        <v>249.1480707946022</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1272,12 +1160,6 @@
       <c r="B19" t="n">
         <v>94</v>
       </c>
-      <c r="C19" t="n">
-        <v>-62.09015111359153</v>
-      </c>
-      <c r="D19" t="n">
-        <v>240.2832758873422</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1286,12 +1168,6 @@
       <c r="B20" t="n">
         <v>96</v>
       </c>
-      <c r="C20" t="n">
-        <v>-44.86790429710968</v>
-      </c>
-      <c r="D20" t="n">
-        <v>255.0211998346596</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1300,12 +1176,6 @@
       <c r="B21" t="n">
         <v>97</v>
       </c>
-      <c r="C21" t="n">
-        <v>-60.16562038156194</v>
-      </c>
-      <c r="D21" t="n">
-        <v>249.8512209806746</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1314,12 +1184,6 @@
       <c r="B22" t="n">
         <v>97</v>
       </c>
-      <c r="C22" t="n">
-        <v>-51.74329431879529</v>
-      </c>
-      <c r="D22" t="n">
-        <v>245.0556616141128</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1328,12 +1192,6 @@
       <c r="B23" t="n">
         <v>99</v>
       </c>
-      <c r="C23" t="n">
-        <v>-54.96463594719937</v>
-      </c>
-      <c r="D23" t="n">
-        <v>245.9838640972291</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1342,12 +1200,6 @@
       <c r="B24" t="n">
         <v>99</v>
       </c>
-      <c r="C24" t="n">
-        <v>-46.73834418831726</v>
-      </c>
-      <c r="D24" t="n">
-        <v>248.9148451613787</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1356,12 +1208,6 @@
       <c r="B25" t="n">
         <v>100</v>
       </c>
-      <c r="C25" t="n">
-        <v>-42.40924792353879</v>
-      </c>
-      <c r="D25" t="n">
-        <v>246.5550787408174</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1370,12 +1216,6 @@
       <c r="B26" t="n">
         <v>100</v>
       </c>
-      <c r="C26" t="n">
-        <v>-44.83863307304108</v>
-      </c>
-      <c r="D26" t="n">
-        <v>250.8404242340377</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1384,12 +1224,6 @@
       <c r="B27" t="n">
         <v>101</v>
       </c>
-      <c r="C27" t="n">
-        <v>-32.60759353390347</v>
-      </c>
-      <c r="D27" t="n">
-        <v>255.1575693579658</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1398,12 +1232,6 @@
       <c r="B28" t="n">
         <v>101</v>
       </c>
-      <c r="C28" t="n">
-        <v>-51.84176878806007</v>
-      </c>
-      <c r="D28" t="n">
-        <v>251.3890920205423</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1412,12 +1240,6 @@
       <c r="B29" t="n">
         <v>103</v>
       </c>
-      <c r="C29" t="n">
-        <v>-53.58583620129977</v>
-      </c>
-      <c r="D29" t="n">
-        <v>244.3160510276288</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1426,12 +1248,6 @@
       <c r="B30" t="n">
         <v>103</v>
       </c>
-      <c r="C30" t="n">
-        <v>-41.84760568942556</v>
-      </c>
-      <c r="D30" t="n">
-        <v>255.9323084938668</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1440,12 +1256,6 @@
       <c r="B31" t="n">
         <v>104</v>
       </c>
-      <c r="C31" t="n">
-        <v>-47.81971314739381</v>
-      </c>
-      <c r="D31" t="n">
-        <v>257.7090433478691</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1454,12 +1264,6 @@
       <c r="B32" t="n">
         <v>104</v>
       </c>
-      <c r="C32" t="n">
-        <v>-42.68186167937606</v>
-      </c>
-      <c r="D32" t="n">
-        <v>265.3322861860874</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1468,12 +1272,6 @@
       <c r="B33" t="n">
         <v>105</v>
       </c>
-      <c r="C33" t="n">
-        <v>-51.31586628689925</v>
-      </c>
-      <c r="D33" t="n">
-        <v>250.8251494868412</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1482,12 +1280,6 @@
       <c r="B34" t="n">
         <v>105</v>
       </c>
-      <c r="C34" t="n">
-        <v>-50.49718844168113</v>
-      </c>
-      <c r="D34" t="n">
-        <v>251.8415433020244</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1496,12 +1288,6 @@
       <c r="B35" t="n">
         <v>106</v>
       </c>
-      <c r="C35" t="n">
-        <v>-46.4150156458661</v>
-      </c>
-      <c r="D35" t="n">
-        <v>262.4241274131418</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1510,12 +1296,6 @@
       <c r="B36" t="n">
         <v>107</v>
       </c>
-      <c r="C36" t="n">
-        <v>-48.85617610935928</v>
-      </c>
-      <c r="D36" t="n">
-        <v>254.1620077155121</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1524,12 +1304,6 @@
       <c r="B37" t="n">
         <v>111</v>
       </c>
-      <c r="C37" t="n">
-        <v>-39.49804816297192</v>
-      </c>
-      <c r="D37" t="n">
-        <v>274.7295843483599</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1538,12 +1312,6 @@
       <c r="B38" t="n">
         <v>112</v>
       </c>
-      <c r="C38" t="n">
-        <v>-34.73991124042663</v>
-      </c>
-      <c r="D38" t="n">
-        <v>259.4550211292342</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1552,12 +1320,6 @@
       <c r="B39" t="n">
         <v>113</v>
       </c>
-      <c r="C39" t="n">
-        <v>-33.39138366977189</v>
-      </c>
-      <c r="D39" t="n">
-        <v>273.1265002263449</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1566,12 +1328,6 @@
       <c r="B40" t="n">
         <v>113</v>
       </c>
-      <c r="C40" t="n">
-        <v>-40.19005178711286</v>
-      </c>
-      <c r="D40" t="n">
-        <v>264.4746623138895</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1580,12 +1336,6 @@
       <c r="B41" t="n">
         <v>114</v>
       </c>
-      <c r="C41" t="n">
-        <v>-40.1572649941246</v>
-      </c>
-      <c r="D41" t="n">
-        <v>266.0856660386406</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1594,12 +1344,6 @@
       <c r="B42" t="n">
         <v>115</v>
       </c>
-      <c r="C42" t="n">
-        <v>-46.12782990563502</v>
-      </c>
-      <c r="D42" t="n">
-        <v>261.1077447886579</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1608,12 +1352,6 @@
       <c r="B43" t="n">
         <v>116</v>
       </c>
-      <c r="C43" t="n">
-        <v>-28.42527974557532</v>
-      </c>
-      <c r="D43" t="n">
-        <v>271.4270328818843</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1622,12 +1360,6 @@
       <c r="B44" t="n">
         <v>116</v>
       </c>
-      <c r="C44" t="n">
-        <v>-34.11957412649119</v>
-      </c>
-      <c r="D44" t="n">
-        <v>277.1785355288732</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1636,12 +1368,6 @@
       <c r="B45" t="n">
         <v>117</v>
       </c>
-      <c r="C45" t="n">
-        <v>-32.2524822471669</v>
-      </c>
-      <c r="D45" t="n">
-        <v>255.4149612226694</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1650,12 +1376,6 @@
       <c r="B46" t="n">
         <v>118</v>
       </c>
-      <c r="C46" t="n">
-        <v>-30.31125390059152</v>
-      </c>
-      <c r="D46" t="n">
-        <v>269.3181647113717</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1664,12 +1384,6 @@
       <c r="B47" t="n">
         <v>119</v>
       </c>
-      <c r="C47" t="n">
-        <v>-27.21459211204624</v>
-      </c>
-      <c r="D47" t="n">
-        <v>270.245339936985</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1678,12 +1392,6 @@
       <c r="B48" t="n">
         <v>119</v>
       </c>
-      <c r="C48" t="n">
-        <v>-37.82038541350573</v>
-      </c>
-      <c r="D48" t="n">
-        <v>264.8666697744933</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1692,12 +1400,6 @@
       <c r="B49" t="n">
         <v>120</v>
       </c>
-      <c r="C49" t="n">
-        <v>-29.94755533064287</v>
-      </c>
-      <c r="D49" t="n">
-        <v>279.1921629520487</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1706,12 +1408,6 @@
       <c r="B50" t="n">
         <v>120</v>
       </c>
-      <c r="C50" t="n">
-        <v>-27.48149862395706</v>
-      </c>
-      <c r="D50" t="n">
-        <v>281.8372412451992</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1720,12 +1416,6 @@
       <c r="B51" t="n">
         <v>121</v>
       </c>
-      <c r="C51" t="n">
-        <v>-29.76788140239055</v>
-      </c>
-      <c r="D51" t="n">
-        <v>277.1762616495807</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1734,12 +1424,6 @@
       <c r="B52" t="n">
         <v>122</v>
       </c>
-      <c r="C52" t="n">
-        <v>-25.03617790005428</v>
-      </c>
-      <c r="D52" t="n">
-        <v>284.1203763640547</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1748,12 +1432,6 @@
       <c r="B53" t="n">
         <v>122</v>
       </c>
-      <c r="C53" t="n">
-        <v>-28.65297296299482</v>
-      </c>
-      <c r="D53" t="n">
-        <v>269.4652550918231</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1762,12 +1440,6 @@
       <c r="B54" t="n">
         <v>123</v>
       </c>
-      <c r="C54" t="n">
-        <v>-33.94034751937073</v>
-      </c>
-      <c r="D54" t="n">
-        <v>268.4256200574456</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1775,12 +1447,6 @@
       </c>
       <c r="B55" t="n">
         <v>123</v>
-      </c>
-      <c r="C55" t="n">
-        <v>-15.83410273026471</v>
-      </c>
-      <c r="D55" t="n">
-        <v>281.9192284755436</v>
       </c>
     </row>
   </sheetData>
